--- a/biology/Histoire de la zoologie et de la botanique/Henry_Augustus_Pilsbry/Henry_Augustus_Pilsbry.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Augustus_Pilsbry/Henry_Augustus_Pilsbry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Augustus Pilsbry est un  malacologiste américain, né le 7 décembre 1862 à Iowa City et mort le 26 octobre 1957 à Lantana (Floride).
 Il obtient son Bachelor of Sciences en 1882 à l’université de l'Iowa. Il travaille comme journaliste de 1882 à 1887 à Iowa City et à Davenport. En 1887, il devient assistant à l’Academy of Natural Sciences of Philadelphia (ANSP). De 1885 à 1895, il est conservateur de  conchyliologie au sein de la même institution. Il dirige la publication, de 1889 à 1932, du Manual of Conchology. À partir de 1897 et jusqu’en 1957, il est le conservateur de l’Académie.
@@ -516,7 +528,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Biographie de Charles H. Smith, Joshua Woleben et Carubie Rodgers
  Portail de l’histoire de la zoologie et de la botanique   Portail de la zoologie   Portail des États-Unis   Portail des mollusques et de la malacologie                  </t>
